--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
     <t>cosMo@폭주P</t>
   </si>
   <si>
-    <t>cosMo, 코스모, 폭주P</t>
+    <t>cosMo, 코스모, 폭주, 폭주P</t>
   </si>
   <si>
     <t>BadBye</t>
@@ -409,7 +409,7 @@
     <t>koma'n</t>
   </si>
   <si>
-    <t>코망, koma n</t>
+    <t>코망, koma n, koma'n</t>
   </si>
   <si>
     <t>ウミユリ海底譚</t>
@@ -1199,7 +1199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy년 m월 d일"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1212,13 +1212,6 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <color rgb="FF373A3C"/>
     </font>
     <font>
       <color rgb="FF373A3C"/>
@@ -1239,7 +1232,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1255,28 +1248,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2054,7 +2036,7 @@
       <c r="A20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2084,7 +2066,7 @@
       <c r="B21" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D21" s="2"/>
@@ -2290,1447 +2272,1935 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>4.52</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>9.01</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F124" si="1">A3-A2</f>
+        <v>4.49</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>13.15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>149</v>
       </c>
+      <c r="F4" s="7">
+        <f t="shared" si="1"/>
+        <v>4.14</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>17.67</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>151</v>
       </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>4.52</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>20.97</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>2.0</v>
       </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>26.53</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>155</v>
       </c>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>5.56</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>30.76</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>157</v>
       </c>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>4.23</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>35.21</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>159</v>
       </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>4.45</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>39.57</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>3.0</v>
       </c>
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>4.36</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>48.14</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>163</v>
       </c>
+      <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>8.57</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>57.0</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>8.86</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>65.18</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>167</v>
       </c>
+      <c r="F13" s="7">
+        <f t="shared" si="1"/>
+        <v>8.18</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>74.6</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>4.0</v>
       </c>
+      <c r="F14" s="7">
+        <f t="shared" si="1"/>
+        <v>9.42</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>78.48</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>171</v>
       </c>
+      <c r="F15" s="7">
+        <f t="shared" si="1"/>
+        <v>3.88</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>82.86</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>173</v>
       </c>
+      <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>4.38</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>87.0</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>175</v>
       </c>
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>4.14</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>91.32</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>5.0</v>
       </c>
+      <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>4.32</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>95.51</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>179</v>
       </c>
+      <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>4.19</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>99.51</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>181</v>
       </c>
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>104.0</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>183</v>
       </c>
+      <c r="F21" s="7">
+        <f t="shared" si="1"/>
+        <v>4.49</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>108.52</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>185</v>
       </c>
+      <c r="F22" s="7">
+        <f t="shared" si="1"/>
+        <v>4.52</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>113.05</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>187</v>
       </c>
+      <c r="F23" s="7">
+        <f t="shared" si="1"/>
+        <v>4.53</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>117.53</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>189</v>
       </c>
+      <c r="F24" s="7">
+        <f t="shared" si="1"/>
+        <v>4.48</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>122.06</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>191</v>
       </c>
+      <c r="F25" s="7">
+        <f t="shared" si="1"/>
+        <v>4.53</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>126.55</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>6.0</v>
       </c>
+      <c r="F26" s="7">
+        <f t="shared" si="1"/>
+        <v>4.49</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>129.06</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>195</v>
       </c>
+      <c r="F27" s="7">
+        <f t="shared" si="1"/>
+        <v>2.51</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>131.28</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>197</v>
       </c>
+      <c r="F28" s="7">
+        <f t="shared" si="1"/>
+        <v>2.22</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>133.49</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>199</v>
       </c>
+      <c r="F29" s="7">
+        <f t="shared" si="1"/>
+        <v>2.21</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>135.77</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>201</v>
       </c>
+      <c r="F30" s="7">
+        <f t="shared" si="1"/>
+        <v>2.28</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>137.96</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>203</v>
       </c>
+      <c r="F31" s="7">
+        <f t="shared" si="1"/>
+        <v>2.19</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>140.46</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>205</v>
       </c>
+      <c r="F32" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>142.76</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>207</v>
       </c>
+      <c r="F33" s="7">
+        <f t="shared" si="1"/>
+        <v>2.3</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>144.88</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>7.0</v>
       </c>
+      <c r="F34" s="7">
+        <f t="shared" si="1"/>
+        <v>2.12</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>150.06</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>211</v>
       </c>
+      <c r="F35" s="7">
+        <f t="shared" si="1"/>
+        <v>5.18</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>156.59</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>213</v>
       </c>
+      <c r="F36" s="7">
+        <f t="shared" si="1"/>
+        <v>6.53</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>162.02</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>209</v>
       </c>
+      <c r="F37" s="7">
+        <f t="shared" si="1"/>
+        <v>5.43</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>167.61</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>215</v>
       </c>
+      <c r="F38" s="7">
+        <f t="shared" si="1"/>
+        <v>5.59</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>174.1</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>217</v>
       </c>
+      <c r="F39" s="7">
+        <f t="shared" si="1"/>
+        <v>6.49</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>179.15</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>8.0</v>
       </c>
+      <c r="F40" s="7">
+        <f t="shared" si="1"/>
+        <v>5.05</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>182.63</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>221</v>
       </c>
+      <c r="F41" s="7">
+        <f t="shared" si="1"/>
+        <v>3.48</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>187.64</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>223</v>
       </c>
+      <c r="F42" s="7">
+        <f t="shared" si="1"/>
+        <v>5.01</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>191.57</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>225</v>
       </c>
+      <c r="F43" s="7">
+        <f t="shared" si="1"/>
+        <v>3.93</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>195.5</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>227</v>
       </c>
+      <c r="F44" s="7">
+        <f t="shared" si="1"/>
+        <v>3.93</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>197.03</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>9.0</v>
       </c>
+      <c r="F45" s="7">
+        <f t="shared" si="1"/>
+        <v>1.53</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>201.44</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>231</v>
       </c>
+      <c r="F46" s="7">
+        <f t="shared" si="1"/>
+        <v>4.41</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>205.5</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="6" t="s">
         <v>233</v>
       </c>
+      <c r="F47" s="7">
+        <f t="shared" si="1"/>
+        <v>4.06</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>208.55</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>235</v>
       </c>
+      <c r="F48" s="7">
+        <f t="shared" si="1"/>
+        <v>3.05</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>214.5</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>10.0</v>
       </c>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>5.95</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>218.22</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>239</v>
       </c>
+      <c r="F50" s="7">
+        <f t="shared" si="1"/>
+        <v>3.72</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>221.79</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>241</v>
       </c>
+      <c r="F51" s="7">
+        <f t="shared" si="1"/>
+        <v>3.57</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>226.91</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>243</v>
       </c>
+      <c r="F52" s="7">
+        <f t="shared" si="1"/>
+        <v>5.12</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>230.97</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>11.0</v>
       </c>
+      <c r="F53" s="7">
+        <f t="shared" si="1"/>
+        <v>4.06</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>235.55</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="9" t="s">
         <v>247</v>
       </c>
+      <c r="F54" s="7">
+        <f t="shared" si="1"/>
+        <v>4.58</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>239.61</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="9" t="s">
         <v>249</v>
       </c>
+      <c r="F55" s="7">
+        <f t="shared" si="1"/>
+        <v>4.06</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>244.2</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="9" t="s">
         <v>251</v>
       </c>
+      <c r="F56" s="7">
+        <f t="shared" si="1"/>
+        <v>4.59</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>248.32</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>12.0</v>
       </c>
+      <c r="F57" s="7">
+        <f t="shared" si="1"/>
+        <v>4.12</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>252.89</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>255</v>
       </c>
+      <c r="F58" s="7">
+        <f t="shared" si="1"/>
+        <v>4.57</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>256.95</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>257</v>
       </c>
+      <c r="F59" s="7">
+        <f t="shared" si="1"/>
+        <v>4.06</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>261.54</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>259</v>
       </c>
+      <c r="F60" s="7">
+        <f t="shared" si="1"/>
+        <v>4.59</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>265.6</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>13.0</v>
       </c>
+      <c r="F61" s="7">
+        <f t="shared" si="1"/>
+        <v>4.06</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>270.12</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>263</v>
       </c>
+      <c r="F62" s="7">
+        <f t="shared" si="1"/>
+        <v>4.52</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>274.77</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>265</v>
       </c>
+      <c r="F63" s="7">
+        <f t="shared" si="1"/>
+        <v>4.65</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>278.88</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>267</v>
       </c>
+      <c r="F64" s="7">
+        <f t="shared" si="1"/>
+        <v>4.11</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>283.93</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="6">
         <v>14.0</v>
       </c>
+      <c r="F65" s="7">
+        <f t="shared" si="1"/>
+        <v>5.05</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>288.04</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>271</v>
       </c>
+      <c r="F66" s="7">
+        <f t="shared" si="1"/>
+        <v>4.11</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>292.11</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>273</v>
       </c>
+      <c r="F67" s="7">
+        <f t="shared" si="1"/>
+        <v>4.07</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>297.16</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>275</v>
       </c>
+      <c r="F68" s="7">
+        <f t="shared" si="1"/>
+        <v>5.05</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>300.25</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <v>15.0</v>
       </c>
+      <c r="F69" s="7">
+        <f t="shared" si="1"/>
+        <v>3.09</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <v>301.62</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>279</v>
       </c>
+      <c r="F70" s="7">
+        <f t="shared" si="1"/>
+        <v>1.37</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <v>305.99</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>281</v>
       </c>
+      <c r="F71" s="7">
+        <f t="shared" si="1"/>
+        <v>4.37</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <v>310.06</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>283</v>
       </c>
+      <c r="F72" s="7">
+        <f t="shared" si="1"/>
+        <v>4.07</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <v>314.66</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>285</v>
       </c>
+      <c r="F73" s="7">
+        <f t="shared" si="1"/>
+        <v>4.6</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>319.24</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <v>16.0</v>
       </c>
+      <c r="F74" s="7">
+        <f t="shared" si="1"/>
+        <v>4.58</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>323.23</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="8" t="s">
         <v>289</v>
       </c>
+      <c r="F75" s="7">
+        <f t="shared" si="1"/>
+        <v>3.99</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>327.4</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="8" t="s">
         <v>291</v>
       </c>
+      <c r="F76" s="7">
+        <f t="shared" si="1"/>
+        <v>4.17</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <v>332.0</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="8" t="s">
         <v>293</v>
       </c>
+      <c r="F77" s="7">
+        <f t="shared" si="1"/>
+        <v>4.6</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <v>336.06</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <v>17.0</v>
       </c>
+      <c r="F78" s="7">
+        <f t="shared" si="1"/>
+        <v>4.06</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <v>340.12</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>297</v>
       </c>
+      <c r="F79" s="7">
+        <f t="shared" si="1"/>
+        <v>4.06</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <v>344.71</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>299</v>
       </c>
+      <c r="F80" s="7">
+        <f t="shared" si="1"/>
+        <v>4.59</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <v>349.29</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>301</v>
       </c>
+      <c r="F81" s="7">
+        <f t="shared" si="1"/>
+        <v>4.58</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <v>353.83</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="6">
         <v>18.0</v>
       </c>
+      <c r="F82" s="7">
+        <f t="shared" si="1"/>
+        <v>4.54</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <v>358.43</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>305</v>
       </c>
+      <c r="F83" s="7">
+        <f t="shared" si="1"/>
+        <v>4.6</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <v>362.5</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>307</v>
       </c>
+      <c r="F84" s="7">
+        <f t="shared" si="1"/>
+        <v>4.07</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <v>366.57</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>309</v>
       </c>
+      <c r="F85" s="7">
+        <f t="shared" si="1"/>
+        <v>4.07</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <v>372.21</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="6">
         <v>19.0</v>
       </c>
+      <c r="F86" s="7">
+        <f t="shared" si="1"/>
+        <v>5.64</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <v>375.75</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>313</v>
       </c>
+      <c r="F87" s="7">
+        <f t="shared" si="1"/>
+        <v>3.54</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <v>380.34</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>315</v>
       </c>
+      <c r="F88" s="7">
+        <f t="shared" si="1"/>
+        <v>4.59</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="6">
+      <c r="A89" s="5">
         <v>383.46</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="F89" s="7">
+        <f t="shared" si="1"/>
+        <v>3.12</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="6">
+      <c r="A90" s="5">
         <v>389.5</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="6">
         <v>20.0</v>
       </c>
+      <c r="F90" s="7">
+        <f t="shared" si="1"/>
+        <v>6.04</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="6">
+      <c r="A91" s="5">
         <v>392.96</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F91" s="7">
+        <f t="shared" si="1"/>
+        <v>3.46</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="6">
+      <c r="A92" s="5">
         <v>397.55</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>323</v>
       </c>
+      <c r="F92" s="7">
+        <f t="shared" si="1"/>
+        <v>4.59</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <v>402.15</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>325</v>
       </c>
+      <c r="F93" s="7">
+        <f t="shared" si="1"/>
+        <v>4.6</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="6">
+      <c r="A94" s="5">
         <v>406.21</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="6">
         <v>21.0</v>
       </c>
+      <c r="F94" s="7">
+        <f t="shared" si="1"/>
+        <v>4.06</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="6">
+      <c r="A95" s="5">
         <v>411.32</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>329</v>
       </c>
+      <c r="F95" s="7">
+        <f t="shared" si="1"/>
+        <v>5.11</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="6">
+      <c r="A96" s="5">
         <v>415.38</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="F96" s="7">
+        <f t="shared" si="1"/>
+        <v>4.06</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="6">
+      <c r="A97" s="5">
         <v>419.43</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>333</v>
       </c>
+      <c r="F97" s="7">
+        <f t="shared" si="1"/>
+        <v>4.05</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="6">
+      <c r="A98" s="5">
         <v>423.0</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="6">
         <v>22.0</v>
       </c>
+      <c r="F98" s="7">
+        <f t="shared" si="1"/>
+        <v>3.57</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="6">
+      <c r="A99" s="5">
         <v>429.07</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>337</v>
       </c>
+      <c r="F99" s="7">
+        <f t="shared" si="1"/>
+        <v>6.07</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="6">
+      <c r="A100" s="5">
         <v>432.48</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>339</v>
       </c>
+      <c r="F100" s="7">
+        <f t="shared" si="1"/>
+        <v>3.41</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="6">
+      <c r="A101" s="5">
         <v>437.52</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>341</v>
       </c>
+      <c r="F101" s="7">
+        <f t="shared" si="1"/>
+        <v>5.04</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="6">
-        <v>442.01</v>
-      </c>
-      <c r="B102" s="7" t="s">
+      <c r="A102" s="5">
+        <v>441.51</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="6">
         <v>23.0</v>
       </c>
+      <c r="F102" s="7">
+        <f t="shared" si="1"/>
+        <v>3.99</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="6">
+      <c r="A103" s="5">
         <v>445.1</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>345</v>
       </c>
+      <c r="F103" s="7">
+        <f t="shared" si="1"/>
+        <v>3.59</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="6">
+      <c r="A104" s="5">
         <v>449.2</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>347</v>
       </c>
+      <c r="F104" s="7">
+        <f t="shared" si="1"/>
+        <v>4.1</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="6">
+      <c r="A105" s="5">
         <v>454.25</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="6" t="s">
         <v>349</v>
       </c>
+      <c r="F105" s="7">
+        <f t="shared" si="1"/>
+        <v>5.05</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="6">
+      <c r="A106" s="5">
         <v>456.27</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="F106" s="7">
+        <f t="shared" si="1"/>
+        <v>2.02</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="6">
+      <c r="A107" s="5">
         <v>458.77</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="6">
         <v>24.0</v>
       </c>
+      <c r="F107" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="6">
+      <c r="A108" s="5">
         <v>461.05</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>355</v>
       </c>
+      <c r="F108" s="7">
+        <f t="shared" si="1"/>
+        <v>2.28</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="6">
+      <c r="A109" s="5">
         <v>463.06</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>357</v>
       </c>
+      <c r="F109" s="7">
+        <f t="shared" si="1"/>
+        <v>2.01</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="6">
+      <c r="A110" s="5">
         <v>464.89</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>359</v>
       </c>
+      <c r="F110" s="7">
+        <f t="shared" si="1"/>
+        <v>1.83</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="6">
+      <c r="A111" s="5">
         <v>467.14</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="F111" s="7">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="6">
+      <c r="A112" s="5">
         <v>469.88</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>363</v>
       </c>
+      <c r="F112" s="7">
+        <f t="shared" si="1"/>
+        <v>2.74</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="6">
+      <c r="A113" s="5">
         <v>472.3</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>365</v>
       </c>
+      <c r="F113" s="7">
+        <f t="shared" si="1"/>
+        <v>2.42</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="6">
+      <c r="A114" s="5">
         <v>473.75</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>367</v>
       </c>
+      <c r="F114" s="7">
+        <f t="shared" si="1"/>
+        <v>1.45</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="6">
-        <v>470.06</v>
-      </c>
-      <c r="B115" s="7" t="s">
+      <c r="A115" s="5">
+        <v>475.57</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" s="6">
         <v>25.0</v>
       </c>
+      <c r="F115" s="7">
+        <f t="shared" si="1"/>
+        <v>1.82</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="6">
+      <c r="A116" s="5">
         <v>484.05</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="8" t="s">
         <v>371</v>
       </c>
+      <c r="F116" s="7">
+        <f t="shared" si="1"/>
+        <v>8.48</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="6">
+      <c r="A117" s="5">
         <v>493.76</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="6">
         <v>26.0</v>
       </c>
+      <c r="F117" s="7">
+        <f t="shared" si="1"/>
+        <v>9.71</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="6">
+      <c r="A118" s="5">
         <v>500.61</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="6" t="s">
         <v>375</v>
       </c>
+      <c r="F118" s="7">
+        <f t="shared" si="1"/>
+        <v>6.85</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="6">
+      <c r="A119" s="5">
         <v>509.77</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="6" t="s">
         <v>377</v>
       </c>
+      <c r="F119" s="7">
+        <f t="shared" si="1"/>
+        <v>9.16</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="6">
+      <c r="A120" s="5">
         <v>512.82</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>379</v>
       </c>
+      <c r="F120" s="7">
+        <f t="shared" si="1"/>
+        <v>3.05</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="6">
+      <c r="A121" s="5">
         <v>518.4</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>381</v>
       </c>
+      <c r="F121" s="7">
+        <f t="shared" si="1"/>
+        <v>5.58</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="6">
+      <c r="A122" s="5">
         <v>527.64</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>383</v>
       </c>
+      <c r="F122" s="7">
+        <f t="shared" si="1"/>
+        <v>9.24</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="6">
+      <c r="A123" s="5">
         <v>536.11</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="6" t="s">
         <v>385</v>
       </c>
+      <c r="F123" s="7">
+        <f t="shared" si="1"/>
+        <v>8.47</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="6">
+      <c r="A124" s="5">
         <v>538.0</v>
       </c>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="8">
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6">
         <v>-1.0</v>
+      </c>
+      <c r="F124" s="7">
+        <f t="shared" si="1"/>
+        <v>1.89</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -137,7 +137,7 @@
     <t>노심융해</t>
   </si>
   <si>
-    <t>노심융해, 로신유우카이, 로신유카이</t>
+    <t>노심융해, 로신유우카이, 로신유카이, 멜트다운</t>
   </si>
   <si>
     <t>iroha (sasaki)</t>
@@ -424,7 +424,7 @@
     <t>n-buna</t>
   </si>
   <si>
-    <t>nbuna, 나부나</t>
+    <t>nbuna, 나부나, n-buna</t>
   </si>
   <si>
     <t>ダブルラリアット</t>
@@ -1199,7 +1199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy년 m월 d일"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1209,6 +1209,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1232,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1248,6 +1249,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1255,10 +1259,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1702,7 +1706,7 @@
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="2"/>
@@ -1958,7 +1962,7 @@
         <v>90</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2184,7 +2188,7 @@
         <v>129</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="4" t="s">
         <v>130</v>
       </c>
       <c r="H25" s="2"/>
@@ -2272,1933 +2276,1933 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>4.52</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>9.01</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <f t="shared" ref="F3:F124" si="1">A3-A2</f>
         <v>4.49</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>13.15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <f t="shared" si="1"/>
         <v>4.14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>17.67</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <f t="shared" si="1"/>
         <v>4.52</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>20.97</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>2.0</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>26.53</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>5.56</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>30.76</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <f t="shared" si="1"/>
         <v>4.23</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>35.21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>4.45</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>39.57</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>3.0</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <f t="shared" si="1"/>
         <v>4.36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>48.14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <f t="shared" si="1"/>
         <v>8.57</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>57.0</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <f t="shared" si="1"/>
         <v>8.86</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>65.18</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <f t="shared" si="1"/>
         <v>8.18</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>74.6</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>4.0</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <f t="shared" si="1"/>
         <v>9.42</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>78.48</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <f t="shared" si="1"/>
         <v>3.88</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>82.86</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <f t="shared" si="1"/>
         <v>4.38</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>87.0</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <f t="shared" si="1"/>
         <v>4.14</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>91.32</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>5.0</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <f t="shared" si="1"/>
         <v>4.32</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>95.51</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <f t="shared" si="1"/>
         <v>4.19</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>99.51</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>104.0</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <f t="shared" si="1"/>
         <v>4.49</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>108.52</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="8">
         <f t="shared" si="1"/>
         <v>4.52</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>113.05</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <f t="shared" si="1"/>
         <v>4.53</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>117.53</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <f t="shared" si="1"/>
         <v>4.48</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>122.06</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <f t="shared" si="1"/>
         <v>4.53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>126.55</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>6.0</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <f t="shared" si="1"/>
         <v>4.49</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>129.06</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <f t="shared" si="1"/>
         <v>2.51</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>131.28</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="8">
         <f t="shared" si="1"/>
         <v>2.22</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <v>133.49</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <f t="shared" si="1"/>
         <v>2.21</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5">
+      <c r="A30" s="6">
         <v>135.77</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="8">
         <f t="shared" si="1"/>
         <v>2.28</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>137.96</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <f t="shared" si="1"/>
         <v>2.19</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <v>140.46</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>142.76</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <f t="shared" si="1"/>
         <v>2.3</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>144.88</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="7">
         <v>7.0</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="8">
         <f t="shared" si="1"/>
         <v>2.12</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>150.06</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <f t="shared" si="1"/>
         <v>5.18</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5">
+      <c r="A36" s="6">
         <v>156.59</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="8">
         <f t="shared" si="1"/>
         <v>6.53</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>162.02</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <f t="shared" si="1"/>
         <v>5.43</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5">
+      <c r="A38" s="6">
         <v>167.61</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="8">
         <f t="shared" si="1"/>
         <v>5.59</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <v>174.1</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="8">
         <f t="shared" si="1"/>
         <v>6.49</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>179.15</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="7">
         <v>8.0</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="8">
         <f t="shared" si="1"/>
         <v>5.05</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5">
+      <c r="A41" s="6">
         <v>182.63</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="8">
         <f t="shared" si="1"/>
         <v>3.48</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5">
+      <c r="A42" s="6">
         <v>187.64</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="8">
         <f t="shared" si="1"/>
         <v>5.01</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5">
+      <c r="A43" s="6">
         <v>191.57</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="8">
         <f t="shared" si="1"/>
         <v>3.93</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5">
+      <c r="A44" s="6">
         <v>195.5</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <f t="shared" si="1"/>
         <v>3.93</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5">
+      <c r="A45" s="6">
         <v>197.03</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="7">
         <v>9.0</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <f t="shared" si="1"/>
         <v>1.53</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5">
+      <c r="A46" s="6">
         <v>201.44</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="8">
         <f t="shared" si="1"/>
         <v>4.41</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5">
+      <c r="A47" s="6">
         <v>205.5</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="8">
         <f t="shared" si="1"/>
         <v>4.06</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5">
+      <c r="A48" s="6">
         <v>208.55</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="8">
         <f t="shared" si="1"/>
         <v>3.05</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <v>214.5</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="7">
         <v>10.0</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <f t="shared" si="1"/>
         <v>5.95</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5">
+      <c r="A50" s="6">
         <v>218.22</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="8">
         <f t="shared" si="1"/>
         <v>3.72</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5">
+      <c r="A51" s="6">
         <v>221.79</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="8">
         <f t="shared" si="1"/>
         <v>3.57</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5">
+      <c r="A52" s="6">
         <v>226.91</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="8">
         <f t="shared" si="1"/>
         <v>5.12</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5">
+      <c r="A53" s="6">
         <v>230.97</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="7">
         <v>11.0</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="8">
         <f t="shared" si="1"/>
         <v>4.06</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5">
+      <c r="A54" s="6">
         <v>235.55</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="8">
         <f t="shared" si="1"/>
         <v>4.58</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5">
+      <c r="A55" s="6">
         <v>239.61</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="8">
         <f t="shared" si="1"/>
         <v>4.06</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5">
+      <c r="A56" s="6">
         <v>244.2</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="8">
         <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5">
+      <c r="A57" s="6">
         <v>248.32</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="7">
         <v>12.0</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="8">
         <f t="shared" si="1"/>
         <v>4.12</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5">
+      <c r="A58" s="6">
         <v>252.89</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="8">
         <f t="shared" si="1"/>
         <v>4.57</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5">
+      <c r="A59" s="6">
         <v>256.95</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="8">
         <f t="shared" si="1"/>
         <v>4.06</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5">
+      <c r="A60" s="6">
         <v>261.54</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="8">
         <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5">
+      <c r="A61" s="6">
         <v>265.6</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="7">
         <v>13.0</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="8">
         <f t="shared" si="1"/>
         <v>4.06</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5">
+      <c r="A62" s="6">
         <v>270.12</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="8">
         <f t="shared" si="1"/>
         <v>4.52</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5">
+      <c r="A63" s="6">
         <v>274.77</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="8">
         <f t="shared" si="1"/>
         <v>4.65</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5">
+      <c r="A64" s="6">
         <v>278.88</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="8">
         <f t="shared" si="1"/>
         <v>4.11</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5">
+      <c r="A65" s="6">
         <v>283.93</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="7">
         <v>14.0</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="8">
         <f t="shared" si="1"/>
         <v>5.05</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="5">
+      <c r="A66" s="6">
         <v>288.04</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="8">
         <f t="shared" si="1"/>
         <v>4.11</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5">
+      <c r="A67" s="6">
         <v>292.11</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="8">
         <f t="shared" si="1"/>
         <v>4.07</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5">
+      <c r="A68" s="6">
         <v>297.16</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="8">
         <f t="shared" si="1"/>
         <v>5.05</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5">
+      <c r="A69" s="6">
         <v>300.25</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="7">
         <v>15.0</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="8">
         <f t="shared" si="1"/>
         <v>3.09</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5">
+      <c r="A70" s="6">
         <v>301.62</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="8">
         <f t="shared" si="1"/>
         <v>1.37</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5">
+      <c r="A71" s="6">
         <v>305.99</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="8">
         <f t="shared" si="1"/>
         <v>4.37</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5">
+      <c r="A72" s="6">
         <v>310.06</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="8">
         <f t="shared" si="1"/>
         <v>4.07</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5">
+      <c r="A73" s="6">
         <v>314.66</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="8">
         <f t="shared" si="1"/>
         <v>4.6</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5">
+      <c r="A74" s="6">
         <v>319.24</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="7">
         <v>16.0</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="8">
         <f t="shared" si="1"/>
         <v>4.58</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5">
+      <c r="A75" s="6">
         <v>323.23</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="8">
         <f t="shared" si="1"/>
         <v>3.99</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5">
+      <c r="A76" s="6">
         <v>327.4</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="8">
         <f t="shared" si="1"/>
         <v>4.17</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5">
+      <c r="A77" s="6">
         <v>332.0</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="8">
         <f t="shared" si="1"/>
         <v>4.6</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="5">
+      <c r="A78" s="6">
         <v>336.06</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="7">
         <v>17.0</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="8">
         <f t="shared" si="1"/>
         <v>4.06</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5">
+      <c r="A79" s="6">
         <v>340.12</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="8">
         <f t="shared" si="1"/>
         <v>4.06</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5">
+      <c r="A80" s="6">
         <v>344.71</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="8">
         <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5">
+      <c r="A81" s="6">
         <v>349.29</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="8">
         <f t="shared" si="1"/>
         <v>4.58</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5">
+      <c r="A82" s="6">
         <v>353.83</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="7">
         <v>18.0</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="8">
         <f t="shared" si="1"/>
         <v>4.54</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5">
+      <c r="A83" s="6">
         <v>358.43</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="8">
         <f t="shared" si="1"/>
         <v>4.6</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5">
+      <c r="A84" s="6">
         <v>362.5</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="8">
         <f t="shared" si="1"/>
         <v>4.07</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="5">
+      <c r="A85" s="6">
         <v>366.57</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="8">
         <f t="shared" si="1"/>
         <v>4.07</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="5">
+      <c r="A86" s="6">
         <v>372.21</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="7">
         <v>19.0</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="8">
         <f t="shared" si="1"/>
         <v>5.64</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="5">
+      <c r="A87" s="6">
         <v>375.75</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="8">
         <f t="shared" si="1"/>
         <v>3.54</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="5">
+      <c r="A88" s="6">
         <v>380.34</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="8">
         <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="5">
+      <c r="A89" s="6">
         <v>383.46</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="8">
         <f t="shared" si="1"/>
         <v>3.12</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="5">
+      <c r="A90" s="6">
         <v>389.5</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="7">
         <v>20.0</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="8">
         <f t="shared" si="1"/>
         <v>6.04</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="5">
+      <c r="A91" s="6">
         <v>392.96</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="8">
         <f t="shared" si="1"/>
         <v>3.46</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="5">
+      <c r="A92" s="6">
         <v>397.55</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="8">
         <f t="shared" si="1"/>
         <v>4.59</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5">
+      <c r="A93" s="6">
         <v>402.15</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="8">
         <f t="shared" si="1"/>
         <v>4.6</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="5">
+      <c r="A94" s="6">
         <v>406.21</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="7">
         <v>21.0</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="8">
         <f t="shared" si="1"/>
         <v>4.06</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="5">
+      <c r="A95" s="6">
         <v>411.32</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="8">
         <f t="shared" si="1"/>
         <v>5.11</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="5">
+      <c r="A96" s="6">
         <v>415.38</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="8">
         <f t="shared" si="1"/>
         <v>4.06</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="5">
+      <c r="A97" s="6">
         <v>419.43</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="8">
         <f t="shared" si="1"/>
         <v>4.05</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="5">
+      <c r="A98" s="6">
         <v>423.0</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="7">
         <v>22.0</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="8">
         <f t="shared" si="1"/>
         <v>3.57</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="5">
+      <c r="A99" s="6">
         <v>429.07</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="8">
         <f t="shared" si="1"/>
         <v>6.07</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5">
+      <c r="A100" s="6">
         <v>432.48</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="8">
         <f t="shared" si="1"/>
         <v>3.41</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5">
+      <c r="A101" s="6">
         <v>437.52</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="8">
         <f t="shared" si="1"/>
         <v>5.04</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5">
+      <c r="A102" s="6">
         <v>441.51</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="7">
         <v>23.0</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="8">
         <f t="shared" si="1"/>
         <v>3.99</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5">
+      <c r="A103" s="6">
         <v>445.1</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="8">
         <f t="shared" si="1"/>
         <v>3.59</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="5">
+      <c r="A104" s="6">
         <v>449.2</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="8">
         <f t="shared" si="1"/>
         <v>4.1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="5">
+      <c r="A105" s="6">
         <v>454.25</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="8">
         <f t="shared" si="1"/>
         <v>5.05</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="5">
+      <c r="A106" s="6">
         <v>456.27</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="8">
         <f t="shared" si="1"/>
         <v>2.02</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="5">
+      <c r="A107" s="6">
         <v>458.77</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="7">
         <v>24.0</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="8">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5">
+      <c r="A108" s="6">
         <v>461.05</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="8">
         <f t="shared" si="1"/>
         <v>2.28</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5">
+      <c r="A109" s="6">
         <v>463.06</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="8">
         <f t="shared" si="1"/>
         <v>2.01</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5">
+      <c r="A110" s="6">
         <v>464.89</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="8">
         <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5">
+      <c r="A111" s="6">
         <v>467.14</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="8">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5">
+      <c r="A112" s="6">
         <v>469.88</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112" s="8">
         <f t="shared" si="1"/>
         <v>2.74</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="5">
+      <c r="A113" s="6">
         <v>472.3</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="8">
         <f t="shared" si="1"/>
         <v>2.42</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="5">
+      <c r="A114" s="6">
         <v>473.75</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="8">
         <f t="shared" si="1"/>
         <v>1.45</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="5">
+      <c r="A115" s="6">
         <v>475.57</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="7">
         <v>25.0</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="8">
         <f t="shared" si="1"/>
         <v>1.82</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="5">
+      <c r="A116" s="6">
         <v>484.05</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116" s="8">
         <f t="shared" si="1"/>
         <v>8.48</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5">
+      <c r="A117" s="6">
         <v>493.76</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="7">
         <v>26.0</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="8">
         <f t="shared" si="1"/>
         <v>9.71</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5">
+      <c r="A118" s="6">
         <v>500.61</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118" s="8">
         <f t="shared" si="1"/>
         <v>6.85</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="5">
+      <c r="A119" s="6">
         <v>509.77</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="8">
         <f t="shared" si="1"/>
         <v>9.16</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5">
+      <c r="A120" s="6">
         <v>512.82</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" s="8">
         <f t="shared" si="1"/>
         <v>3.05</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5">
+      <c r="A121" s="6">
         <v>518.4</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121" s="8">
         <f t="shared" si="1"/>
         <v>5.58</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5">
+      <c r="A122" s="6">
         <v>527.64</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="8">
         <f t="shared" si="1"/>
         <v>9.24</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5">
+      <c r="A123" s="6">
         <v>536.11</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123" s="8">
         <f t="shared" si="1"/>
         <v>8.47</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5">
+      <c r="A124" s="6">
         <v>538.0</v>
       </c>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6">
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7">
         <v>-1.0</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124" s="8">
         <f t="shared" si="1"/>
         <v>1.89</v>
       </c>
